--- a/spatial_dynamics_foodwebs_Amarasekare_2008_summary.xlsx
+++ b/spatial_dynamics_foodwebs_Amarasekare_2008_summary.xlsx
@@ -22,6 +22,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
+    <t>Type of movement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timescale of movement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spatial scale of movement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foodweb type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main effect(s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavioral (e.g., foraging)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demographic (e.g., dispersal)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faster than local dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slower than or comparable to local dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larger for consumers than resources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar in consumers and resources</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumers at upper trophic levels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species at all trophic levels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluctuating local dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All types of local dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased foodweb persistence by decreasing local extinction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased foodweb diversity by increased species coexistence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechanism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spatial Coupling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metacommunity Dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># Key results from studies of spatial foodweb dynamics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High dispersal (upper trophic levels) -&gt; decreased asynchrony -&gt; decreased persistence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Omnivory increases persistence</t>
     </r>
@@ -51,10 +151,6 @@
   </si>
   <si>
     <t>low dispersal + asynchrony = decreased persistence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>High dispersal (upper trophic levels) -&gt; decreased asynchrony -&gt; increased persistence</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -231,102 +327,6 @@
   </si>
   <si>
     <t># Table replicated from Amarasekare, Ann. Rev. Ecol., Evol. &amp; Syst. 2008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of movement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timescale of movement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spatial scale of movement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foodweb type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main effect(s)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavioral (e.g., foraging)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demographic (e.g., dispersal)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faster than local dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slower than or comparable to local dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Larger for consumers than resources</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similar in consumers and resources</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumers at upper trophic levels</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Species at all trophic levels</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluctuating local dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>All types of local dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increased foodweb persistence by decreasing local extinction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increased foodweb diversity by increased species coexistence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mechanism</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spatial Coupling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metacommunity Dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t># Key results from studies of spatial foodweb dynamics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,6 +578,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,66 +612,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,98 +992,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26">
-      <c r="A10" s="9" t="s">
-        <v>44</v>
+      <c r="A10" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26">
-      <c r="A11" s="10"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1124,199 +1124,198 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="44" customHeight="1" thickBot="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="44" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="44" customHeight="1" thickBot="1">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="44" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="44" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="44" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="44" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="44" customHeight="1" thickBot="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="44" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="44" customHeight="1" thickBot="1">
-      <c r="A5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="44" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="44" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="44" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="44" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="44" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="44" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="44" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="44" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="44" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="44" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="31" t="s">
-        <v>62</v>
-      </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31" t="s">
-        <v>35</v>
+      <c r="A15" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31" t="s">
-        <v>34</v>
+      <c r="A16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
